--- a/Benchmark-Models/Fujita_SciSignal2010/Model/model1_data6.xlsx
+++ b/Benchmark-Models/Fujita_SciSignal2010/Model/model1_data6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
   <si>
     <t>dEGFR/dt</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>init_Akt</t>
-  </si>
-  <si>
-    <t>init_AKT</t>
   </si>
   <si>
     <t>init_pAkt</t>
@@ -494,12 +491,12 @@
         <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
@@ -507,15 +504,15 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -523,7 +520,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
@@ -531,7 +528,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
         <v>42</v>
